--- a/pred_ohlcv/54_21/2019-11-01 ITC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 ITC ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>59380.90394651162</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>59380.90394651162</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>59380.90394651162</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>59380.90394651162</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>54446.58444651162</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>51558.98904651163</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -652,7 +652,7 @@
         <v>51558.98904651163</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>51558.98904651163</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>40305.33124651163</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -912,7 +912,7 @@
         <v>66223.17084651164</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>69934.90474651163</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>68728.80184651163</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-125029.1703534884</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-125029.1703534884</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-125029.1703534884</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-129389.7782534884</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-129389.7782534884</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-129389.7782534884</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-130316.0959534884</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-140562.3106534884</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-140562.3106534884</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-133635.3576534884</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-01 ITC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 ITC ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>59380.90394651162</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>59380.90394651162</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>59380.90394651162</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>59380.90394651162</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>54446.58444651162</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>51558.98904651163</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>51558.98904651163</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -704,7 +704,7 @@
         <v>40305.33124651163</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -886,7 +886,7 @@
         <v>66223.17084651164</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>66223.17084651164</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>65945.44954651163</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>69934.90474651163</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>68728.80184651163</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>69021.95434651163</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>69021.95434651163</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>69021.78984651163</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>63462.61834651163</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>65246.73854651163</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>67564.56424651164</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>125101.6396465116</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>125163.7514465116</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>125163.7514465116</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>123458.3553465116</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>123629.7514465116</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>102157.3722465116</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>102539.3722465116</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>102539.3722465116</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>111979.0866465116</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>111979.0866465116</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>111359.0062465116</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>111600.3578465116</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>111365.6626465116</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>103013.3787465116</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>103684.3128465116</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>103684.3128465116</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>103448.7378465116</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>107373.2172465116</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>100299.6550465116</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>74449.04544651165</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-125029.1703534884</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-125029.1703534884</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-125029.1703534884</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-125029.1703534884</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-125029.1703534884</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-129389.7782534884</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-129389.7782534884</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-129389.7782534884</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-130316.0959534884</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-139833.0648534884</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-139834.0648534884</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-133635.3576534884</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
